--- a/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
+++ b/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>别名</t>
   </si>
@@ -42,6 +42,18 @@
     <t>//ul[@role='menubar']//span[contains(text(),'车位预订')]/..</t>
   </si>
   <si>
+    <t>预订订单流水</t>
+  </si>
+  <si>
+    <t>//li[text()='预订订单流水']</t>
+  </si>
+  <si>
+    <t>预订报表</t>
+  </si>
+  <si>
+    <t>//li[text()='预订报表']</t>
+  </si>
+  <si>
     <t>新增</t>
   </si>
   <si>
@@ -172,6 +184,36 @@
   </si>
   <si>
     <t>//*[@id="app"]//div[@class='modal-wrapper select-park-modal']//button[contains(text(),'确认')][1]</t>
+  </si>
+  <si>
+    <t>时间维度</t>
+  </si>
+  <si>
+    <t>//input[@name='reportDimension']</t>
+  </si>
+  <si>
+    <t>搜索时间</t>
+  </si>
+  <si>
+    <t>//div[text()='订单时间']/..//i[@class='el-input__icon el-range__icon el-icon-time']</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='开始日期']</t>
+  </si>
+  <si>
+    <t>搜索时间-确定</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'确定')]</t>
+  </si>
+  <si>
+    <t>记录列表</t>
+  </si>
+  <si>
+    <t>//div[@id='bookingRecordTable'or @id='bookingFormTable']</t>
   </si>
 </sst>
 </file>
@@ -179,9 +221,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -200,6 +242,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -208,15 +258,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,21 +300,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -252,24 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,14 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -315,6 +355,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -322,23 +371,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,168 +401,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -528,18 +582,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +610,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -583,17 +660,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,44 +707,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,145 +715,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1226,24 +1268,24 @@
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1401,7 +1443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" ht="32" customHeight="1" spans="1:3">
+    <row r="20" ht="33" customHeight="1" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1412,7 +1454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" ht="32" customHeight="1" spans="1:3">
+    <row r="21" ht="33" customHeight="1" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1423,7 +1465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" ht="30" customHeight="1" spans="1:3">
+    <row r="22" ht="32" customHeight="1" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1434,7 +1476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="30" customHeight="1" spans="1:3">
+    <row r="23" ht="32" customHeight="1" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1457,14 +1499,91 @@
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" ht="23" customHeight="1" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="1" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" ht="23" customHeight="1" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
+++ b/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>别名</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>//div[@id='bookingRecordTable'or @id='bookingFormTable']</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "导出")]</t>
   </si>
 </sst>
 </file>
@@ -221,9 +227,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -242,77 +248,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,9 +354,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,6 +370,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -355,32 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,187 +407,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,15 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -634,13 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,24 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,17 +676,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1575,7 +1581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" ht="23" customHeight="1" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -1584,6 +1590,17 @@
       </c>
       <c r="C32" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="33" ht="23" customHeight="1" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
+++ b/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -248,15 +248,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -264,85 +321,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,39 +337,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,187 +407,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,17 +631,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,6 +655,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -676,20 +688,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,15 +713,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -721,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,8 +1229,8 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
+++ b/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
@@ -171,7 +171,7 @@
     <t>请选择停车场</t>
   </si>
   <si>
-    <t>//span[text()='请选择停车场']</t>
+    <t>//span[text()='选择停车场']</t>
   </si>
   <si>
     <t>停车场列表</t>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -257,7 +257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,6 +278,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -286,7 +310,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,32 +332,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,47 +357,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +407,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,169 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,17 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +636,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,9 +672,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,42 +691,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,8 +1229,8 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
+++ b/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
@@ -171,7 +171,7 @@
     <t>请选择停车场</t>
   </si>
   <si>
-    <t>//span[text()='选择停车场']</t>
+    <t>//i[@class='el-icon-arrow-down el-icon--right']</t>
   </si>
   <si>
     <t>停车场列表</t>
@@ -213,7 +213,7 @@
     <t>记录列表</t>
   </si>
   <si>
-    <t>//div[@id='bookingRecordTable'or @id='bookingFormTable']</t>
+    <t>//div[@class='el-table__body-wrapper is-scrolling-none']</t>
   </si>
   <si>
     <t>导出</t>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -255,9 +255,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,69 +301,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,45 +368,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,31 +407,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,151 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,21 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -641,16 +626,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,25 +685,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,8 +1229,8 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
+++ b/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>别名</t>
   </si>
@@ -63,7 +63,7 @@
     <t>停车场</t>
   </si>
   <si>
-    <t>//div[@class='modal-container'and not(@style='display: none;')]//label[text()='停车场']/following-sibling::*[1]//span</t>
+    <t>//div[@class='modal-container'and not(@style='display: none;')]//label[text()='适用停车场']/following-sibling::*[1]//span</t>
   </si>
   <si>
     <t>选择停车场</t>
@@ -72,10 +72,10 @@
     <t>//ul[@id='ParkTree']</t>
   </si>
   <si>
-    <t>设置名称</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-container']//label[text()='设置名称']/following-sibling::*[1]//input</t>
+    <t>预定名称</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[text()='预定名称']/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>可预订数量</t>
@@ -114,10 +114,10 @@
     <t>//div[@class='modal-container']//label[text()='取消是否退停车费']/following-sibling::*[1]//span</t>
   </si>
   <si>
-    <t>可取消时间</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-container']//label[text()='可取消时间（分钟）']/following-sibling::*[1]//input</t>
+    <t>可取消预订时间</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[text()='可取消预订时间']/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>VIP类型</t>
@@ -129,13 +129,13 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//div[@class='modal-container']//button[contains(text(),'确认')]</t>
+    <t>//div[@class='modal-container']//button[contains(text(),'确认') or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>温馨提示-确认</t>
   </si>
   <si>
-    <t>//h3[text()='温馨提示']/../..//button[text()='确定'or text()='确认']</t>
+    <t>//h3[text()='温馨提示']/../..//button[text()='确定'or text()='确认' or text()='确 认']</t>
   </si>
   <si>
     <t>搜索框</t>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>//*[@id="app"]//a[contains(text(), "导出")]</t>
+  </si>
+  <si>
+    <t>费用设置</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'费用设置')]</t>
   </si>
 </sst>
 </file>
@@ -228,8 +234,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -248,30 +254,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,8 +292,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,12 +324,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -315,6 +352,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -324,37 +369,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,25 +390,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,181 +413,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +618,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,9 +672,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,56 +719,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -721,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,7 +739,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,124 +748,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,10 +1233,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1601,6 +1607,17 @@
       </c>
       <c r="C33" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
+++ b/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840"/>
+    <workbookView windowWidth="20925" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,8 +235,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -254,16 +254,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -271,14 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,24 +351,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,81 +397,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -413,19 +413,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,13 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,145 +563,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,16 +622,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -646,11 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,11 +678,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,36 +719,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,133 +739,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,8 +1235,8 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
+++ b/res/page/车场运营/增值服务/车位预订/CarBookingRulePage.xlsx
@@ -213,7 +213,7 @@
     <t>记录列表</t>
   </si>
   <si>
-    <t>//div[@class='el-table__body-wrapper is-scrolling-none']</t>
+    <t>//div[contains(@id,'table-cache')]</t>
   </si>
   <si>
     <t>导出</t>
@@ -235,8 +235,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -254,75 +254,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,7 +270,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,40 +367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,6 +382,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -413,187 +413,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,30 +618,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,22 +652,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,6 +685,35 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -727,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,7 +739,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,124 +748,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,8 +1235,8 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
